--- a/KYJ/honey_stick/analysis/package_analysis.xlsx
+++ b/KYJ/honey_stick/analysis/package_analysis.xlsx
@@ -21,12 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>n_review</t>
-  </si>
-  <si>
     <t>고급</t>
   </si>
   <si>
@@ -48,6 +42,14 @@
   </si>
   <si>
     <t>kakao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -140,17 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -158,13 +156,44 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -174,14 +203,13 @@
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -191,6 +219,23 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -220,20 +265,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -253,18 +284,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A2:F22" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A2:F22" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A2:F22"/>
   <sortState ref="A2:F47">
     <sortCondition descending="1" ref="B1:B47"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Code" dataDxfId="2"/>
-    <tableColumn id="2" name="n_review" dataDxfId="0"/>
-    <tableColumn id="3" name="고급" dataDxfId="1"/>
-    <tableColumn id="4" name="깔끔" dataDxfId="5"/>
-    <tableColumn id="5" name="예쁘" dataDxfId="4"/>
-    <tableColumn id="6" name="귀엽" dataDxfId="3"/>
+    <tableColumn id="1" name="제품코드" dataDxfId="1"/>
+    <tableColumn id="2" name="리뷰수" dataDxfId="0"/>
+    <tableColumn id="3" name="고급" dataDxfId="5"/>
+    <tableColumn id="4" name="깔끔" dataDxfId="4"/>
+    <tableColumn id="5" name="예쁘" dataDxfId="3"/>
+    <tableColumn id="6" name="귀엽" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -558,897 +589,902 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="3"/>
-    <col min="2" max="2" width="10.09765625" style="3" customWidth="1"/>
-    <col min="3" max="6" width="8.796875" style="2"/>
-    <col min="8" max="8" width="12.19921875" customWidth="1"/>
-    <col min="10" max="13" width="8.796875" style="2"/>
-    <col min="17" max="20" width="8.796875" style="2"/>
+    <col min="1" max="1" width="11.19921875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" style="14" customWidth="1"/>
+    <col min="3" max="6" width="8.796875" style="1"/>
+    <col min="8" max="8" width="12.19921875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="18"/>
+    <col min="10" max="13" width="8.796875" style="1"/>
+    <col min="15" max="16" width="8.796875" style="22"/>
+    <col min="17" max="20" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="O1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="O1" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="I2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="O2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="S2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="T2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
+      <c r="A3" s="15">
         <v>1308881</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="15">
         <v>796</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>6.3E-3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>0.22239999999999999</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="9">
+      <c r="G3" s="9"/>
+      <c r="H3" s="16">
         <v>5026039</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="16">
         <v>5472</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="7">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="7">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="7">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="7">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="20">
         <v>2270784</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="20">
         <v>1000</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="7">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="7">
         <v>3.1E-2</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A4" s="5">
+      <c r="A4" s="15">
         <v>828517</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="15">
         <v>694</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>0.24929999999999999</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>0.245</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="11">
+      <c r="G4" s="9"/>
+      <c r="H4" s="17">
         <v>5052665</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="17">
         <v>1285</v>
       </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
         <v>4.36E-2</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="8">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="8">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="21">
         <v>758604</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="21">
         <v>290</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="8">
         <v>1.03E-2</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="8">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="8">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="8">
         <v>3.1E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A5" s="5">
+      <c r="A5" s="15">
         <v>1571702</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="15">
         <v>527</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.23910000000000001</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>0.31309999999999999</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="9">
+      <c r="G5" s="9"/>
+      <c r="H5" s="16">
         <v>5057627</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="16">
         <v>733</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <v>1.09E-2</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="7">
         <v>0.06</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="7">
         <v>1.23E-2</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="20">
         <v>2144896</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="20">
         <v>140</v>
       </c>
-      <c r="Q5" s="10">
-        <v>0</v>
-      </c>
-      <c r="R5" s="10">
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
         <v>1.43E-2</v>
       </c>
-      <c r="S5" s="10">
-        <v>0</v>
-      </c>
-      <c r="T5" s="10">
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
+      <c r="A6" s="15">
         <v>1761413</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="15">
         <v>313</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>2.24E-2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.1565</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>0.35780000000000001</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="11">
+      <c r="G6" s="9"/>
+      <c r="H6" s="17">
         <v>5136210</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="17">
         <v>727</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="8">
         <v>1.4E-3</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="8">
         <v>2.75E-2</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="8">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="O6" s="11">
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="21">
         <v>5709993</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="21">
         <v>77</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="8">
         <v>0.10390000000000001</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="8">
         <v>3.9E-2</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="8">
         <v>0.15579999999999999</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A7" s="5">
+      <c r="A7" s="15">
         <v>954061</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="15">
         <v>279</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.20069999999999999</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>0.21149999999999999</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="9">
+      <c r="G7" s="9"/>
+      <c r="H7" s="16">
         <v>5043945</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="16">
         <v>666</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="7">
         <v>1.5E-3</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="7">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="7">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="20">
         <v>2144550</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="20">
         <v>60</v>
       </c>
-      <c r="Q7" s="10">
-        <v>0</v>
-      </c>
-      <c r="R7" s="10">
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="7">
         <v>1.67E-2</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="7">
         <v>1.67E-2</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
+      <c r="A8" s="15">
         <v>1830672</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="15">
         <v>248</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>0.1089</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>0.19350000000000001</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="11">
+      <c r="G8" s="9"/>
+      <c r="H8" s="17">
         <v>5041269</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="17">
         <v>491</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="8">
         <v>2E-3</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="8">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
         <v>2E-3</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="21">
         <v>3604201</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="21">
         <v>56</v>
       </c>
-      <c r="Q8" s="12">
-        <v>0</v>
-      </c>
-      <c r="R8" s="12">
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="8">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="8">
         <v>8.9300000000000004E-2</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A9" s="5">
+      <c r="A9" s="15">
         <v>1830707</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="15">
         <v>238</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>0.17649999999999999</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>0.25209999999999999</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="9">
+      <c r="G9" s="9"/>
+      <c r="H9" s="16">
         <v>5136211</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="16">
         <v>468</v>
       </c>
-      <c r="J9" s="10">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10">
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="7">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="20">
         <v>2515420</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="20">
         <v>23</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="7">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="R9" s="10">
-        <v>0</v>
-      </c>
-      <c r="S9" s="10">
-        <v>0</v>
-      </c>
-      <c r="T9" s="10">
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
+      <c r="A10" s="15">
         <v>704639</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="15">
         <v>203</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>0.23150000000000001</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="11">
+      <c r="G10" s="9"/>
+      <c r="H10" s="17">
         <v>5009728</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="17">
         <v>366</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="8">
         <v>1.09E-2</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="8">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="8">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="8">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="21">
         <v>2144529</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="21">
         <v>22</v>
       </c>
-      <c r="Q10" s="12">
-        <v>0</v>
-      </c>
-      <c r="R10" s="12">
-        <v>0</v>
-      </c>
-      <c r="S10" s="12">
-        <v>0</v>
-      </c>
-      <c r="T10" s="12">
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
+      <c r="A11" s="15">
         <v>1692080</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="15">
         <v>189</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>1.06E-2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>0.16930000000000001</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>0.15870000000000001</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="9">
+      <c r="G11" s="9"/>
+      <c r="H11" s="16">
         <v>5136213</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="16">
         <v>174</v>
       </c>
-      <c r="J11" s="10">
-        <v>0</v>
-      </c>
-      <c r="K11" s="10">
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
         <v>2.3E-2</v>
       </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="20">
         <v>2514972</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="20">
         <v>20</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="7">
         <v>0.1</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="7">
         <v>0.15</v>
       </c>
-      <c r="S11" s="10">
-        <v>0</v>
-      </c>
-      <c r="T11" s="10">
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A12" s="5">
+      <c r="A12" s="15">
         <v>704891</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="15">
         <v>157</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>0.24840000000000001</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>0.14649999999999999</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="11">
+      <c r="G12" s="9"/>
+      <c r="H12" s="17">
         <v>5112532</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="17">
         <v>92</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="8">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="8">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="8">
         <v>0.13039999999999999</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A13" s="5">
+      <c r="A13" s="15">
         <v>704893</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="15">
         <v>152</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>0.36840000000000001</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>0.11840000000000001</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="9">
+      <c r="G13" s="9"/>
+      <c r="H13" s="16">
         <v>1000015810</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="16">
         <v>50</v>
       </c>
-      <c r="J13" s="10">
-        <v>0</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0</v>
-      </c>
-      <c r="M13" s="10">
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
+      <c r="A14" s="15">
         <v>704896</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="15">
         <v>143</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>0.2727</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>0.1119</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A15" s="5">
+      <c r="A15" s="15">
         <v>1970378</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="15">
         <v>109</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
         <v>1.83E-2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>0.38529999999999998</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>0.25690000000000002</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A16" s="5">
+      <c r="A16" s="15">
         <v>704864</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="15">
         <v>95</v>
       </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>8.4199999999999997E-2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>0.1263</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="5">
+      <c r="A17" s="15">
         <v>704400</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="15">
         <v>93</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>0.2903</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>0.17199999999999999</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="5">
+      <c r="A18" s="15">
         <v>704591</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="15">
         <v>84</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>0.11899999999999999</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="4">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="5">
+      <c r="A19" s="15">
         <v>1764501</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="15">
         <v>72</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>0.27779999999999999</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>0.2361</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="5">
+      <c r="A20" s="15">
         <v>1159441</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="15">
         <v>71</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>1.41E-2</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>0.16900000000000001</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="5">
+      <c r="A21" s="15">
         <v>704664</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="15">
         <v>70</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>1.43E-2</v>
       </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
         <v>8.5699999999999998E-2</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="4">
         <v>8.5699999999999998E-2</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="5">
+      <c r="A22" s="15">
         <v>751922</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="15">
         <v>50</v>
       </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
         <v>0.16</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>0.08</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G23" s="13"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G24" s="13"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G25" s="13"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G26" s="13"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G27" s="13"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G28" s="13"/>
+      <c r="G28" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/KYJ/honey_stick/analysis/package_analysis.xlsx
+++ b/KYJ/honey_stick/analysis/package_analysis.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
   <si>
     <t>고급</t>
   </si>
@@ -52,12 +53,76 @@
     <t>제품코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>깔끔함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예쁨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀여움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급스러움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카톡 선물하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예쁨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀여움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +148,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -115,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -138,11 +212,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -194,22 +329,324 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="19">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -222,6 +659,18 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -266,7 +715,9 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="표 스타일 1" pivot="0" count="0"/>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFF6969"/>
@@ -284,18 +735,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A2:F22" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A2:F22" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A2:F22"/>
   <sortState ref="A2:F47">
     <sortCondition descending="1" ref="B1:B47"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="제품코드" dataDxfId="1"/>
-    <tableColumn id="2" name="리뷰수" dataDxfId="0"/>
-    <tableColumn id="3" name="고급" dataDxfId="5"/>
-    <tableColumn id="4" name="깔끔" dataDxfId="4"/>
-    <tableColumn id="5" name="예쁘" dataDxfId="3"/>
-    <tableColumn id="6" name="귀엽" dataDxfId="2"/>
+    <tableColumn id="1" name="제품코드" dataDxfId="15"/>
+    <tableColumn id="2" name="리뷰수" dataDxfId="14"/>
+    <tableColumn id="3" name="고급스러움" dataDxfId="13"/>
+    <tableColumn id="4" name="깔끔함" dataDxfId="10"/>
+    <tableColumn id="5" name="예쁨" dataDxfId="12"/>
+    <tableColumn id="6" name="귀여움" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="B2:G28" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <sortState ref="B3:G31">
+    <sortCondition descending="1" ref="D2:D31"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="플랫폼" dataDxfId="9"/>
+    <tableColumn id="2" name="제품코드" dataDxfId="8"/>
+    <tableColumn id="3" name="리뷰수" dataDxfId="3"/>
+    <tableColumn id="4" name="고급" dataDxfId="2"/>
+    <tableColumn id="5" name="예쁨" dataDxfId="1"/>
+    <tableColumn id="6" name="귀여움" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -588,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -639,16 +1107,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="13" t="s">
@@ -1543,4 +2011,881 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.3984375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" style="14" customWidth="1"/>
+    <col min="5" max="7" width="8.796875" style="1"/>
+    <col min="9" max="9" width="12.19921875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="18"/>
+    <col min="11" max="13" width="8.796875" style="1"/>
+    <col min="15" max="16" width="8.796875" style="22"/>
+    <col min="17" max="19" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="O1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="16">
+        <v>2270784</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="28">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F3" s="28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="16">
+        <v>5026039</v>
+      </c>
+      <c r="J3" s="16">
+        <v>5472</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="L3" s="7">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="M3" s="7">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1308881</v>
+      </c>
+      <c r="D4" s="15">
+        <v>796</v>
+      </c>
+      <c r="E4" s="30">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="F4" s="30">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="17">
+        <v>5052665</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1285</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="15">
+        <v>828517</v>
+      </c>
+      <c r="D5" s="15">
+        <v>694</v>
+      </c>
+      <c r="E5" s="30">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0.245</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="16">
+        <v>5057627</v>
+      </c>
+      <c r="J5" s="16">
+        <v>733</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1.09E-2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1571702</v>
+      </c>
+      <c r="D6" s="15">
+        <v>527</v>
+      </c>
+      <c r="E6" s="30">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="F6" s="30">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="G6" s="31">
+        <v>0.31309999999999999</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="17">
+        <v>5136210</v>
+      </c>
+      <c r="J6" s="17">
+        <v>727</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.4E-3</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1761413</v>
+      </c>
+      <c r="D7" s="15">
+        <v>313</v>
+      </c>
+      <c r="E7" s="30">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0.1565</v>
+      </c>
+      <c r="G7" s="31">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="16">
+        <v>5043945</v>
+      </c>
+      <c r="J7" s="16">
+        <v>666</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L7" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M7" s="7">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="17">
+        <v>758604</v>
+      </c>
+      <c r="D8" s="17">
+        <v>290</v>
+      </c>
+      <c r="E8" s="32">
+        <v>1.03E-2</v>
+      </c>
+      <c r="F8" s="32">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="G8" s="33">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="17">
+        <v>5041269</v>
+      </c>
+      <c r="J8" s="17">
+        <v>491</v>
+      </c>
+      <c r="K8" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15">
+        <v>954061</v>
+      </c>
+      <c r="D9" s="15">
+        <v>279</v>
+      </c>
+      <c r="E9" s="30">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="16">
+        <v>5136211</v>
+      </c>
+      <c r="J9" s="16">
+        <v>468</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1830672</v>
+      </c>
+      <c r="D10" s="15">
+        <v>248</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
+        <v>0.1089</v>
+      </c>
+      <c r="G10" s="31">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="17">
+        <v>5009728</v>
+      </c>
+      <c r="J10" s="17">
+        <v>366</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1.09E-2</v>
+      </c>
+      <c r="L10" s="8">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="M10" s="8">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1830707</v>
+      </c>
+      <c r="D11" s="15">
+        <v>238</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="G11" s="31">
+        <v>0.25209999999999999</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="16">
+        <v>5136213</v>
+      </c>
+      <c r="J11" s="16">
+        <v>174</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="15">
+        <v>704639</v>
+      </c>
+      <c r="D12" s="15">
+        <v>203</v>
+      </c>
+      <c r="E12" s="30">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="G12" s="31">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="17">
+        <v>5112532</v>
+      </c>
+      <c r="J12" s="17">
+        <v>92</v>
+      </c>
+      <c r="K12" s="8">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1692080</v>
+      </c>
+      <c r="D13" s="15">
+        <v>189</v>
+      </c>
+      <c r="E13" s="30">
+        <v>1.06E-2</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0.16930000000000001</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="16">
+        <v>1000015810</v>
+      </c>
+      <c r="J13" s="16">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="15">
+        <v>704891</v>
+      </c>
+      <c r="D14" s="15">
+        <v>157</v>
+      </c>
+      <c r="E14" s="30">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15">
+        <v>704893</v>
+      </c>
+      <c r="D15" s="15">
+        <v>152</v>
+      </c>
+      <c r="E15" s="30">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="15">
+        <v>704896</v>
+      </c>
+      <c r="D16" s="15">
+        <v>143</v>
+      </c>
+      <c r="E16" s="30">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F16" s="30">
+        <v>0.2727</v>
+      </c>
+      <c r="G16" s="31">
+        <v>0.1119</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="16">
+        <v>2144896</v>
+      </c>
+      <c r="D17" s="16">
+        <v>140</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1970378</v>
+      </c>
+      <c r="D18" s="15">
+        <v>109</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0</v>
+      </c>
+      <c r="F18" s="30">
+        <v>0.38529999999999998</v>
+      </c>
+      <c r="G18" s="31">
+        <v>0.25690000000000002</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="15">
+        <v>704864</v>
+      </c>
+      <c r="D19" s="15">
+        <v>95</v>
+      </c>
+      <c r="E19" s="30">
+        <v>0</v>
+      </c>
+      <c r="F19" s="30">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="G19" s="31">
+        <v>0.1263</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="15">
+        <v>704400</v>
+      </c>
+      <c r="D20" s="15">
+        <v>93</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="F20" s="30">
+        <v>0.2903</v>
+      </c>
+      <c r="G20" s="31">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="15">
+        <v>704591</v>
+      </c>
+      <c r="D21" s="15">
+        <v>84</v>
+      </c>
+      <c r="E21" s="30">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="F21" s="30">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G21" s="31">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="17">
+        <v>5709993</v>
+      </c>
+      <c r="D22" s="17">
+        <v>77</v>
+      </c>
+      <c r="E22" s="32">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="F22" s="32">
+        <v>0.15579999999999999</v>
+      </c>
+      <c r="G22" s="33">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1764501</v>
+      </c>
+      <c r="D23" s="15">
+        <v>72</v>
+      </c>
+      <c r="E23" s="30">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="F23" s="30">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="G23" s="31">
+        <v>0.2361</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1159441</v>
+      </c>
+      <c r="D24" s="15">
+        <v>71</v>
+      </c>
+      <c r="E24" s="30">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G24" s="31">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="15">
+        <v>704664</v>
+      </c>
+      <c r="D25" s="15">
+        <v>70</v>
+      </c>
+      <c r="E25" s="30">
+        <v>1.43E-2</v>
+      </c>
+      <c r="F25" s="30">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="G25" s="31">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="16">
+        <v>2144550</v>
+      </c>
+      <c r="D26" s="16">
+        <v>60</v>
+      </c>
+      <c r="E26" s="28">
+        <v>0</v>
+      </c>
+      <c r="F26" s="28">
+        <v>1.67E-2</v>
+      </c>
+      <c r="G26" s="29">
+        <v>1.67E-2</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="17">
+        <v>3604201</v>
+      </c>
+      <c r="D27" s="17">
+        <v>56</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0</v>
+      </c>
+      <c r="F27" s="32">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="G27" s="33">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="15">
+        <v>751922</v>
+      </c>
+      <c r="D28" s="15">
+        <v>50</v>
+      </c>
+      <c r="E28" s="30">
+        <v>0</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0.16</v>
+      </c>
+      <c r="G28" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="K3:M13">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:M13">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:G2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:G2">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:G28">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:G28">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/KYJ/honey_stick/analysis/package_analysis.xlsx
+++ b/KYJ/honey_stick/analysis/package_analysis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NT550-048\Desktop\doeat\doeat2023\KYJ\honey_stick\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kwon\Desktop\eatthecompany_project\doeat2023\KYJ\honey_stick\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EAFCDC-8FA2-48C6-8DA7-27AC68A7FDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>고급</t>
   </si>
@@ -82,47 +83,202 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예쁨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀여움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀타민 선물박스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비 허니 얼그레이 카라멜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비 기프트세트 미니자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">워커비 기프트세트 미니자(3-4개입)	</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비 해피팩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">꿀떡만들기 키트	</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무설탕 프로폴리스 캔디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비 프로폴리스 스프레이 &amp; 캔디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비 보틀 바닐라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비 허니 그린티 카라멜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">워커비 기프트세트 콤보	</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비 기프트세트 미니팩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEAR. FRIENDS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비 미니팩 레몬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비 보틀 오리지널</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비 보틀 레몬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비 더블 미니팩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비 보틀 얼그레이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비 보틀 시나몬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비 허니 모히또</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>합계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>누계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예쁨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀여움</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품코드</t>
+  </si>
+  <si>
+    <t>비마스터 프로폴리스 혼합 허니스틱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"하루한포" 허니스틱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커비 기프트세트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀타민 선물세트 5호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-23.5) 천연 벌꿀 허니스틱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꿀먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한라산</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스틱꿀</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +318,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -189,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -273,11 +452,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -362,14 +563,89 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="25">
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -381,21 +657,94 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.59999389629810485"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -432,9 +781,7 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
+        <right/>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -484,6 +831,45 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -506,62 +892,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -646,6 +976,62 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -716,7 +1102,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="0"/>
+    <tableStyle name="표 스타일 1" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <colors>
     <mruColors>
@@ -735,35 +1121,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A2:F22" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A2:F22"/>
-  <sortState ref="A2:F47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="A2:F22" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
+  <autoFilter ref="A2:F22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F47">
     <sortCondition descending="1" ref="B1:B47"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="제품코드" dataDxfId="15"/>
-    <tableColumn id="2" name="리뷰수" dataDxfId="14"/>
-    <tableColumn id="3" name="고급스러움" dataDxfId="13"/>
-    <tableColumn id="4" name="깔끔함" dataDxfId="10"/>
-    <tableColumn id="5" name="예쁨" dataDxfId="12"/>
-    <tableColumn id="6" name="귀여움" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="제품코드" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="리뷰수" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="고급스러움" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="깔끔함" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="예쁨" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="귀여움" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="B2:G28" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <sortState ref="B3:G31">
-    <sortCondition descending="1" ref="D2:D31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="표3" displayName="표3" ref="B2:G28" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G28">
+    <sortCondition descending="1" ref="D2:D28"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="플랫폼" dataDxfId="9"/>
-    <tableColumn id="2" name="제품코드" dataDxfId="8"/>
-    <tableColumn id="3" name="리뷰수" dataDxfId="3"/>
-    <tableColumn id="4" name="고급" dataDxfId="2"/>
-    <tableColumn id="5" name="예쁨" dataDxfId="1"/>
-    <tableColumn id="6" name="귀여움" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="플랫폼" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="제품명" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="리뷰수" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="고급" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="예쁨" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="귀여움" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AE45346-E563-4C91-A099-393A66EE6B95}" name="표2" displayName="표2" ref="U2:V28" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="U2:V28" xr:uid="{4AE45346-E563-4C91-A099-393A66EE6B95}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U3:V28">
+    <sortCondition descending="1" ref="V2:V28"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2833C727-BA4C-4D04-B87C-393347B6C9C7}" name="제품코드" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{19878EB3-F937-4B2E-BFD6-64975E454514}" name="리뷰수" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1053,11 +1453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="O3" sqref="O3:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2014,17 +2414,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28:J28"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14.3984375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="35.59765625" style="14" customWidth="1"/>
     <col min="4" max="4" width="10.09765625" style="14" customWidth="1"/>
     <col min="5" max="7" width="8.796875" style="1"/>
     <col min="9" max="9" width="12.19921875" style="18" customWidth="1"/>
@@ -2032,9 +2432,10 @@
     <col min="11" max="13" width="8.796875" style="1"/>
     <col min="15" max="16" width="8.796875" style="22"/>
     <col min="17" max="19" width="8.796875" style="1"/>
+    <col min="21" max="21" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="19"/>
       <c r="C1" s="14" t="s">
         <v>5</v>
@@ -2059,24 +2460,24 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
@@ -2109,25 +2510,34 @@
       <c r="S2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="U2" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="20">
+        <v>2270784</v>
+      </c>
       <c r="B3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="16">
-        <v>2270784</v>
-      </c>
-      <c r="D3" s="16">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="28">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="F3" s="28">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G3" s="29">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1221</v>
+      </c>
+      <c r="E3" s="30">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0.24410000000000001</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0.27350000000000002</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="16">
@@ -2145,25 +2555,34 @@
       <c r="M3" s="7">
         <v>4.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="U3" s="36">
+        <v>2270784</v>
+      </c>
+      <c r="V3" s="40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A4" s="16">
+        <v>1308881</v>
+      </c>
       <c r="B4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="15">
-        <v>1308881</v>
-      </c>
-      <c r="D4" s="15">
-        <v>796</v>
-      </c>
-      <c r="E4" s="30">
-        <v>2.2599999999999999E-2</v>
-      </c>
-      <c r="F4" s="30">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="G4" s="31">
-        <v>0.22239999999999999</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="28">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F4" s="28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="17">
@@ -2181,25 +2600,34 @@
       <c r="M4" s="8">
         <v>1.6000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="U4" s="34">
+        <v>1308881</v>
+      </c>
+      <c r="V4" s="38">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A5" s="17">
+        <v>828517</v>
+      </c>
       <c r="B5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15">
-        <v>828517</v>
+      <c r="C5" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="15">
-        <v>694</v>
+        <v>796</v>
       </c>
       <c r="E5" s="30">
-        <v>3.7499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="F5" s="30">
-        <v>0.24929999999999999</v>
+        <v>7.1599999999999997E-2</v>
       </c>
       <c r="G5" s="31">
-        <v>0.245</v>
+        <v>0.22239999999999999</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="16">
@@ -2217,22 +2645,31 @@
       <c r="M5" s="7">
         <v>1.23E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="U5" s="35">
+        <v>828517</v>
+      </c>
+      <c r="V5" s="39">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="16">
+        <v>1571702</v>
+      </c>
       <c r="B6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="15">
-        <v>1571702</v>
+      <c r="C6" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="15">
         <v>527</v>
       </c>
       <c r="E6" s="30">
-        <v>1.3299999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F6" s="30">
-        <v>0.23910000000000001</v>
+        <v>0.24410000000000001</v>
       </c>
       <c r="G6" s="31">
         <v>0.31309999999999999</v>
@@ -2253,25 +2690,34 @@
       <c r="M6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="U6" s="34">
+        <v>1571702</v>
+      </c>
+      <c r="V6" s="38">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A7" s="17">
+        <v>1761413</v>
+      </c>
       <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15">
-        <v>1761413</v>
+      <c r="C7" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="15">
-        <v>313</v>
+        <v>571</v>
       </c>
       <c r="E7" s="30">
-        <v>6.4000000000000003E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F7" s="30">
-        <v>0.1565</v>
+        <v>0.19259999999999999</v>
       </c>
       <c r="G7" s="31">
-        <v>0.35780000000000001</v>
+        <v>0.1033</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="16">
@@ -2289,25 +2735,34 @@
       <c r="M7" s="7">
         <v>7.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="U7" s="35">
+        <v>1761413</v>
+      </c>
+      <c r="V7" s="39">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A8" s="21">
+        <v>758604</v>
+      </c>
       <c r="B8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="17">
-        <v>758604</v>
-      </c>
-      <c r="D8" s="17">
-        <v>290</v>
-      </c>
-      <c r="E8" s="32">
-        <v>1.03E-2</v>
-      </c>
-      <c r="F8" s="32">
-        <v>5.8599999999999999E-2</v>
-      </c>
-      <c r="G8" s="33">
-        <v>3.1E-2</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="15">
+        <v>452</v>
+      </c>
+      <c r="E8" s="30">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="G8" s="31">
+        <v>0.12609999999999999</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="17">
@@ -2325,25 +2780,34 @@
       <c r="M8" s="8">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="U8" s="37">
+        <v>758604</v>
+      </c>
+      <c r="V8" s="41">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9" s="16">
+        <v>954061</v>
+      </c>
       <c r="B9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15">
-        <v>954061</v>
+      <c r="C9" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="D9" s="15">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="E9" s="30">
-        <v>3.5999999999999999E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="F9" s="30">
-        <v>0.20069999999999999</v>
+        <v>0.1565</v>
       </c>
       <c r="G9" s="31">
-        <v>0.21149999999999999</v>
+        <v>0.35780000000000001</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="16">
@@ -2361,25 +2825,34 @@
       <c r="M9" s="7">
         <v>2.0999999999999999E-3</v>
       </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="U9" s="34">
+        <v>954061</v>
+      </c>
+      <c r="V9" s="38">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="17">
+        <v>1830672</v>
+      </c>
       <c r="B10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1830672</v>
-      </c>
-      <c r="D10" s="15">
-        <v>248</v>
-      </c>
-      <c r="E10" s="30">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0.1089</v>
-      </c>
-      <c r="G10" s="31">
-        <v>0.19350000000000001</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="17">
+        <v>290</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1.03E-2</v>
+      </c>
+      <c r="F10" s="32">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="G10" s="33">
+        <v>3.1E-2</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="17">
@@ -2397,25 +2870,34 @@
       <c r="M10" s="8">
         <v>5.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="U10" s="35">
+        <v>1830672</v>
+      </c>
+      <c r="V10" s="39">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" s="16">
+        <v>1830707</v>
+      </c>
       <c r="B11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15">
-        <v>1830707</v>
+      <c r="C11" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="15">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="E11" s="30">
-        <v>0</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="F11" s="30">
-        <v>0.17649999999999999</v>
+        <v>0.20069999999999999</v>
       </c>
       <c r="G11" s="31">
-        <v>0.25209999999999999</v>
+        <v>0.21149999999999999</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="16">
@@ -2433,25 +2915,34 @@
       <c r="M11" s="7">
         <v>5.7000000000000002E-3</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="U11" s="34">
+        <v>1830707</v>
+      </c>
+      <c r="V11" s="38">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12" s="17">
+        <v>704639</v>
+      </c>
       <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="15">
-        <v>704639</v>
+      <c r="C12" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="D12" s="15">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="E12" s="30">
-        <v>9.9000000000000008E-3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="30">
-        <v>0.23150000000000001</v>
+        <v>0.1089</v>
       </c>
       <c r="G12" s="31">
-        <v>9.8500000000000004E-2</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="17">
@@ -2469,25 +2960,34 @@
       <c r="M12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="U12" s="35">
+        <v>704639</v>
+      </c>
+      <c r="V12" s="39">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A13" s="16">
+        <v>1692080</v>
+      </c>
       <c r="B13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15">
-        <v>1692080</v>
+      <c r="C13" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="D13" s="15">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="E13" s="30">
-        <v>1.06E-2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="30">
-        <v>0.16930000000000001</v>
+        <v>0.17649999999999999</v>
       </c>
       <c r="G13" s="31">
-        <v>0.15870000000000001</v>
+        <v>0.25209999999999999</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="16">
@@ -2505,34 +3005,52 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="U13" s="34">
+        <v>1692080</v>
+      </c>
+      <c r="V13" s="38">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A14" s="17">
+        <v>704891</v>
+      </c>
       <c r="B14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="15">
+        <v>189</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1.06E-2</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0.16930000000000001</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="U14" s="35">
         <v>704891</v>
       </c>
-      <c r="D14" s="15">
+      <c r="V14" s="39">
         <v>157</v>
       </c>
-      <c r="E14" s="30">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="F14" s="30">
-        <v>0.24840000000000001</v>
-      </c>
-      <c r="G14" s="31">
-        <v>0.14649999999999999</v>
-      </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="16">
+        <v>704893</v>
+      </c>
       <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="15">
-        <v>704893</v>
+      <c r="C15" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="D15" s="15">
         <v>152</v>
@@ -2547,13 +3065,22 @@
         <v>0.11840000000000001</v>
       </c>
       <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="U15" s="34">
+        <v>704893</v>
+      </c>
+      <c r="V15" s="38">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="17">
+        <v>704896</v>
+      </c>
       <c r="B16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="15">
-        <v>704896</v>
+      <c r="C16" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="15">
         <v>143</v>
@@ -2568,13 +3095,22 @@
         <v>0.1119</v>
       </c>
       <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="U16" s="35">
+        <v>704896</v>
+      </c>
+      <c r="V16" s="39">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A17" s="20">
+        <v>2144896</v>
+      </c>
       <c r="B17" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="16">
-        <v>2144896</v>
+      <c r="C17" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="16">
         <v>140</v>
@@ -2589,13 +3125,22 @@
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="U17" s="36">
+        <v>2144896</v>
+      </c>
+      <c r="V17" s="40">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A18" s="16">
+        <v>1970378</v>
+      </c>
       <c r="B18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="15">
-        <v>1970378</v>
+      <c r="C18" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D18" s="15">
         <v>109</v>
@@ -2604,19 +3149,28 @@
         <v>0</v>
       </c>
       <c r="F18" s="30">
-        <v>0.38529999999999998</v>
+        <v>0.37609999999999999</v>
       </c>
       <c r="G18" s="31">
         <v>0.25690000000000002</v>
       </c>
       <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="U18" s="34">
+        <v>1970378</v>
+      </c>
+      <c r="V18" s="38">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A19" s="17">
+        <v>704864</v>
+      </c>
       <c r="B19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="15">
-        <v>704864</v>
+      <c r="C19" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="15">
         <v>95</v>
@@ -2631,13 +3185,22 @@
         <v>0.1263</v>
       </c>
       <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="U19" s="35">
+        <v>704864</v>
+      </c>
+      <c r="V19" s="39">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A20" s="16">
+        <v>704400</v>
+      </c>
       <c r="B20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="15">
-        <v>704400</v>
+      <c r="C20" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="D20" s="15">
         <v>93</v>
@@ -2652,13 +3215,22 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="U20" s="34">
+        <v>704400</v>
+      </c>
+      <c r="V20" s="38">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A21" s="17">
+        <v>704591</v>
+      </c>
       <c r="B21" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="15">
-        <v>704591</v>
+      <c r="C21" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D21" s="15">
         <v>84</v>
@@ -2673,13 +3245,22 @@
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="U21" s="35">
+        <v>704591</v>
+      </c>
+      <c r="V21" s="39">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A22" s="21">
+        <v>5709993</v>
+      </c>
       <c r="B22" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="17">
-        <v>5709993</v>
+      <c r="C22" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="D22" s="17">
         <v>77</v>
@@ -2694,13 +3275,22 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="U22" s="37">
+        <v>5709993</v>
+      </c>
+      <c r="V22" s="41">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A23" s="16">
+        <v>1764501</v>
+      </c>
       <c r="B23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="15">
-        <v>1764501</v>
+      <c r="C23" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D23" s="15">
         <v>72</v>
@@ -2715,13 +3305,22 @@
         <v>0.2361</v>
       </c>
       <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="U23" s="34">
+        <v>1764501</v>
+      </c>
+      <c r="V23" s="38">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A24" s="17">
+        <v>1159441</v>
+      </c>
       <c r="B24" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="15">
-        <v>1159441</v>
+      <c r="C24" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D24" s="15">
         <v>71</v>
@@ -2736,13 +3335,22 @@
         <v>8.4500000000000006E-2</v>
       </c>
       <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="U24" s="35">
+        <v>1159441</v>
+      </c>
+      <c r="V24" s="39">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A25" s="16">
+        <v>704664</v>
+      </c>
       <c r="B25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="15">
-        <v>704664</v>
+      <c r="C25" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="D25" s="15">
         <v>70</v>
@@ -2757,13 +3365,22 @@
         <v>8.5699999999999998E-2</v>
       </c>
       <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="U25" s="34">
+        <v>704664</v>
+      </c>
+      <c r="V25" s="38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A26" s="20">
+        <v>2144550</v>
+      </c>
       <c r="B26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="16">
-        <v>2144550</v>
+      <c r="C26" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D26" s="16">
         <v>60</v>
@@ -2778,13 +3395,22 @@
         <v>1.67E-2</v>
       </c>
       <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="U26" s="36">
+        <v>2144550</v>
+      </c>
+      <c r="V26" s="40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A27" s="21">
+        <v>3604201</v>
+      </c>
       <c r="B27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="17">
-        <v>3604201</v>
+      <c r="C27" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="D27" s="17">
         <v>56</v>
@@ -2799,13 +3425,22 @@
         <v>8.9300000000000004E-2</v>
       </c>
       <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="U27" s="37">
+        <v>3604201</v>
+      </c>
+      <c r="V27" s="41">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A28" s="17">
+        <v>751922</v>
+      </c>
       <c r="B28" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="15">
-        <v>751922</v>
+      <c r="C28" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="D28" s="15">
         <v>50</v>
@@ -2820,11 +3455,17 @@
         <v>0.08</v>
       </c>
       <c r="H28" s="9"/>
+      <c r="U28" s="44">
+        <v>751922</v>
+      </c>
+      <c r="V28" s="45">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K3:M13">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2834,17 +3475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:M13">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:G2">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2863,8 +3494,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E2:G2">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E3:G28">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2874,7 +3515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:G28">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2884,8 +3525,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>